--- a/Mifos Automation Excels/Client/2411-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2411-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,10 +354,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,7 +838,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A7" sqref="A7:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,12 +887,12 @@
         <v>5000</v>
       </c>
       <c r="F2" s="17">
-        <v>1674.53</v>
+        <v>1664.71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>74.989999999999995</v>
+      <c r="A3" s="14">
+        <v>75.099999999999994</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -907,11 +903,11 @@
       <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="22">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="F3" s="22">
-        <v>28.47</v>
+      <c r="E3" s="14">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F3" s="14">
+        <v>29.17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,10 +957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,14 +1073,14 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="22">
-        <v>838.58</v>
+      <c r="F3" s="14">
+        <v>834.44</v>
       </c>
       <c r="G3" s="17">
-        <v>4161.42</v>
-      </c>
-      <c r="H3" s="23">
-        <v>12.92</v>
+        <v>4165.5600000000004</v>
+      </c>
+      <c r="H3" s="14">
+        <v>12.5</v>
       </c>
       <c r="I3" s="14">
         <v>0</v>
@@ -1092,8 +1088,8 @@
       <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="22">
-        <v>851.5</v>
+      <c r="K3" s="14">
+        <v>846.94</v>
       </c>
       <c r="L3" s="14">
         <v>0</v>
@@ -1107,8 +1103,8 @@
       <c r="O3" s="14">
         <v>0</v>
       </c>
-      <c r="P3" s="22">
-        <v>851.5</v>
+      <c r="P3" s="14">
+        <v>846.94</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1123,14 +1119,14 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="22">
-        <v>835.94</v>
+      <c r="F4" s="14">
+        <v>830.27</v>
       </c>
       <c r="G4" s="17">
-        <v>3325.47</v>
-      </c>
-      <c r="H4" s="23">
-        <v>15.56</v>
+        <v>3335.29</v>
+      </c>
+      <c r="H4" s="14">
+        <v>16.670000000000002</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
@@ -1138,8 +1134,8 @@
       <c r="J4" s="14">
         <v>0</v>
       </c>
-      <c r="K4" s="22">
-        <v>851.5</v>
+      <c r="K4" s="14">
+        <v>846.94</v>
       </c>
       <c r="L4" s="14">
         <v>0</v>
@@ -1153,8 +1149,8 @@
       <c r="O4" s="14">
         <v>0</v>
       </c>
-      <c r="P4" s="22">
-        <v>851.5</v>
+      <c r="P4" s="14">
+        <v>846.94</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1169,14 +1165,14 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="22">
-        <v>829.97</v>
+      <c r="F5" s="14">
+        <v>826.11</v>
       </c>
       <c r="G5" s="17">
-        <v>2495.5</v>
-      </c>
-      <c r="H5" s="23">
-        <v>21.53</v>
+        <v>2509.1799999999998</v>
+      </c>
+      <c r="H5" s="14">
+        <v>20.83</v>
       </c>
       <c r="I5" s="14">
         <v>0</v>
@@ -1184,8 +1180,8 @@
       <c r="J5" s="14">
         <v>0</v>
       </c>
-      <c r="K5" s="22">
-        <v>851.5</v>
+      <c r="K5" s="14">
+        <v>846.94</v>
       </c>
       <c r="L5" s="14">
         <v>0</v>
@@ -1199,8 +1195,8 @@
       <c r="O5" s="14">
         <v>0</v>
       </c>
-      <c r="P5" s="22">
-        <v>851.5</v>
+      <c r="P5" s="14">
+        <v>846.94</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1215,14 +1211,14 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="22">
-        <v>839.02</v>
+      <c r="F6" s="14">
+        <v>834.39</v>
       </c>
       <c r="G6" s="17">
-        <v>1656.48</v>
-      </c>
-      <c r="H6" s="23">
-        <v>12.48</v>
+        <v>1674.79</v>
+      </c>
+      <c r="H6" s="14">
+        <v>12.55</v>
       </c>
       <c r="I6" s="14">
         <v>0</v>
@@ -1230,8 +1226,8 @@
       <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="22">
-        <v>851.5</v>
+      <c r="K6" s="14">
+        <v>846.94</v>
       </c>
       <c r="L6" s="14">
         <v>0</v>
@@ -1245,8 +1241,8 @@
       <c r="O6" s="14">
         <v>0</v>
       </c>
-      <c r="P6" s="22">
-        <v>851.5</v>
+      <c r="P6" s="14">
+        <v>846.94</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1261,14 +1257,14 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="22">
-        <v>843.06</v>
-      </c>
-      <c r="G7" s="17">
-        <v>813.42</v>
-      </c>
-      <c r="H7" s="23">
-        <v>8.44</v>
+      <c r="F7" s="14">
+        <v>838.57</v>
+      </c>
+      <c r="G7" s="14">
+        <v>836.22</v>
+      </c>
+      <c r="H7" s="14">
+        <v>8.3699999999999992</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
@@ -1276,8 +1272,8 @@
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="22">
-        <v>851.5</v>
+      <c r="K7" s="14">
+        <v>846.94</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -1291,11 +1287,11 @@
       <c r="O7" s="14">
         <v>0</v>
       </c>
-      <c r="P7" s="22">
-        <v>851.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="14">
+        <v>846.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1307,14 +1303,14 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="22">
-        <v>813.42</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>4.07</v>
+      <c r="F8" s="14">
+        <v>836.22</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4.18</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
@@ -1322,8 +1318,8 @@
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="22">
-        <v>817.49</v>
+      <c r="K8" s="14">
+        <v>840.4</v>
       </c>
       <c r="L8" s="14">
         <v>0</v>
@@ -1337,11 +1333,10 @@
       <c r="O8" s="14">
         <v>0</v>
       </c>
-      <c r="P8" s="22">
-        <v>817.49</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="P8" s="14">
+        <v>840.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1352,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2411-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2411-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-BLR-ONTIME-CASH-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,6 +369,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -411,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,9 +452,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,6 +504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -957,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,12 +1020,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,17 +1066,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15">
@@ -1060,8 +1104,9 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1097,17 +1142,18 @@
       <c r="M3" s="14">
         <v>0</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14">
         <v>0</v>
       </c>
       <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
         <v>846.94</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1143,17 +1189,18 @@
       <c r="M4" s="14">
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
+      <c r="N4" s="14"/>
       <c r="O4" s="14">
         <v>0</v>
       </c>
       <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
         <v>846.94</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -1189,17 +1236,18 @@
       <c r="M5" s="14">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
+      <c r="N5" s="14"/>
       <c r="O5" s="14">
         <v>0</v>
       </c>
       <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
         <v>846.94</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -1235,17 +1283,18 @@
       <c r="M6" s="14">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14">
         <v>0</v>
       </c>
       <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
         <v>846.94</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1281,17 +1330,18 @@
       <c r="M7" s="14">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
+      <c r="N7" s="14"/>
       <c r="O7" s="14">
         <v>0</v>
       </c>
       <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
         <v>846.94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1327,13 +1377,14 @@
       <c r="M8" s="14">
         <v>0</v>
       </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
+      <c r="N8" s="14"/>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
         <v>840.4</v>
       </c>
     </row>
@@ -1347,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
